--- a/data/statistics2.xlsx
+++ b/data/statistics2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghulux/Programs/pythonProjects/convertible_bond/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDDE0ED-2ADD-A34E-A374-6D44B2CAE169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EED5C20-F168-F848-98D4-3508EA017C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28840" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1129">
   <si>
     <t>证券代码</t>
   </si>
@@ -3413,7 +3413,15 @@
     <t>('奇精机械', '奇精转债')</t>
   </si>
   <si>
-    <t>间隔</t>
+    <t>频率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨跌幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3485,7 +3493,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3567,7 +3575,7 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>日涨跌幅</a:t>
+              <a:t>日涨跌幅频率直方图</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -3609,24 +3617,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$N$2:$N$101</c:f>
@@ -4245,7 +4252,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7CE2-6A4C-9A9E-A3547A3F3FEF}"/>
@@ -4260,10 +4266,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1849102496"/>
         <c:axId val="1647029280"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1849102496"/>
         <c:scaling>
@@ -4373,7 +4379,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -4423,7 +4429,1730 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>正股</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T-2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>日至 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>日涨跌幅分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-0.17201773541410409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16831588685141777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.16461403828873145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16091218972604512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1572103411633588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15350849260067248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14980664403798616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14610479547529984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14240294691261352</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13870109834992719</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.13499924978724087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13129740122455455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12759555266186823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.12389370409918191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.12019185553649558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.11649000697380926</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.11278815841112294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.10908630984843662</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1053844612857503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.10168261272306398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.7980764160377654E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.4278915597691332E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.057706703500501E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.6875218472318688E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.3173369909632366E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.9471521346946045E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.5769672784259723E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.2067824221573401E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.8365975658887079E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.4664127096200757E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.0962278533514436E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.7260429970828114E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.3558581408141792E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.985673284545547E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.6154884282769149E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.2453035720082827E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.8751187157396505E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.5049338594710183E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.1347490032023861E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.764564146933754E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.3943792906651218E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.0241944343964896E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6540095781278574E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.2838247218592254E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.1363986559059342E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.4345500932196141E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.7327015305332936E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9691470321530269E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6709955948393478E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3728441575256678E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3074692720211988E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6776541282898308E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.047838984558463E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.4180238408270952E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7882086970957273E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1583935533643595E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5285784096329917E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8987632659016239E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.268948122170256E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.6391329784388882E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0093178347075204E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.3795026909761526E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.7496875472447848E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.1198724035134169E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4900572597820491E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.8602421160506813E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.2304269723193135E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.6006118285879457E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9707966848565778E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.34098154112521E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7111663973938422E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0813512536624744E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.4515361099311065E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.8217209661997387E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.10191905822468371</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10562090678737003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.10932275535005635</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.11302460391274267</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.116726452475429</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12042830103811532</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.12413014960080164</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12783199816348795</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13153384672617427</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13523569528886059</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13893754385154691</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.14263939241423323</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.14634124097691956</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.15004308953960588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1537449381022922</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.15744678666497852</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.16114863522766484</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16485048379035117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.16855233235303749</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.17225418091572381</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.17595602947841013</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.17965787804109645</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.18335972660378277</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1870615751664691</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.19076342372915542</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.19816712085452801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9542-3D46-80BB-426A1AFAD35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="610634303"/>
+        <c:axId val="610635951"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>频率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-0.17201773541410409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.16831588685141777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.16461403828873145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.16091218972604512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1572103411633588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15350849260067248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.14980664403798616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.14610479547529984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14240294691261352</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.13870109834992719</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.13499924978724087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13129740122455455</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12759555266186823</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.12389370409918191</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.12019185553649558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.11649000697380926</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.11278815841112294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.10908630984843662</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1053844612857503</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.10168261272306398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-9.7980764160377654E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.4278915597691332E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.057706703500501E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.6875218472318688E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.3173369909632366E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.9471521346946045E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.5769672784259723E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.2067824221573401E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.8365975658887079E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.4664127096200757E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.0962278533514436E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.7260429970828114E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.3558581408141792E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.985673284545547E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.6154884282769149E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.2453035720082827E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.8751187157396505E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.5049338594710183E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.1347490032023861E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.764564146933754E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.3943792906651218E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.0241944343964896E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6540095781278574E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.2838247218592254E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.1363986559059342E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.4345500932196141E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.7327015305332936E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9691470321530269E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6709955948393478E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3728441575256678E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3074692720211988E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6776541282898308E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.047838984558463E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.4180238408270952E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7882086970957273E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1583935533643595E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5285784096329917E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8987632659016239E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.268948122170256E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.6391329784388882E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0093178347075204E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.3795026909761526E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.7496875472447848E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.1198724035134169E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4900572597820491E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.8602421160506813E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.2304269723193135E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.6006118285879457E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9707966848565778E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.34098154112521E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7111663973938422E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0813512536624744E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.4515361099311065E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.8217209661997387E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.10191905822468371</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10562090678737003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.10932275535005635</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.11302460391274267</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.116726452475429</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12042830103811532</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.12413014960080164</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12783199816348795</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13153384672617427</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13523569528886059</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13893754385154691</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.14263939241423323</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.14634124097691956</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.15004308953960588</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.1537449381022922</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.15744678666497852</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.16114863522766484</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16485048379035117</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.16855233235303749</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.17225418091572381</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.17595602947841013</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.17965787804109645</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.18335972660378277</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1870615751664691</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.19076342372915542</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.19816712085452801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.1684587813620072E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1684587813620072E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4336917562724014E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.9605734767025085E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9605734767025085E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2544802867383513E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5089605734767026E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5089605734767026E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9713261648745518E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3297491039426525E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7634408602150539E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6881720430107527E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7634408602150539E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3010752688172046E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5842293906810034E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.197132616487455E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7347670250896057E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6594982078853049E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6594982078853049E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4050179211469536E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9426523297491037E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.4050179211469536E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6129032258064516E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6129032258064516E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.046594982078853E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6881720430107527E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.6881720430107527E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9713261648745518E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2544802867383513E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7921146953405017E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2544802867383513E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4336917562724014E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.9605734767025085E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4336917562724014E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.3763440860215058E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5842293906810036E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7921146953405018E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9542-3D46-80BB-426A1AFAD35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="609855359"/>
+        <c:axId val="547077999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="610634303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610635951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="610635951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610634303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="547077999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609855359"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="609855359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="547077999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4979,20 +6708,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1720850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5012,6 +7241,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E2AED8-12C2-C7CC-D5CD-B1E4478C2F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5341,10 +7606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P568"/>
+  <dimension ref="A1:Q568"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J568" sqref="J568"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5354,10 +7619,10 @@
     <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5392,10 +7657,16 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>356</v>
       </c>
@@ -5436,8 +7707,12 @@
         <f>COUNTIF($J$2:$J$559, "&lt;="&amp;N2)-COUNTIF($J$2:$J$559, "&lt;="&amp;N1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="3">
+        <f>P2/558</f>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>410</v>
       </c>
@@ -5479,8 +7754,12 @@
         <f t="shared" ref="P3:P66" si="0">COUNTIF($J$2:$J$559, "&lt;="&amp;N3)-COUNTIF($J$2:$J$559, "&lt;="&amp;N2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q66" si="1">P3/558</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -5515,15 +7794,19 @@
         <v>9.0895436038275643E-2</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N67" si="1">N3+($N$101-$N$2)/100</f>
+        <f t="shared" ref="N4:N67" si="2">N3+($N$101-$N$2)/100</f>
         <v>-0.16461403828873145</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -5558,15 +7841,19 @@
         <v>0.32698483978104831</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16091218972604512</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -5601,15 +7888,19 @@
         <v>0.25651102906738232</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.1572103411633588</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -5644,15 +7935,19 @@
         <v>0.1762963418910331</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.15350849260067248</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -5687,15 +7982,19 @@
         <v>0.16761758130284071</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.14980664403798616</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -5730,15 +8029,19 @@
         <v>5.5649755557743673E-2</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.14610479547529984</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -5773,15 +8076,19 @@
         <v>0.2334084966350963</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.14240294691261352</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5816,15 +8123,19 @@
         <v>0.1554905728076191</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.13870109834992719</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -5859,15 +8170,19 @@
         <v>0.25267315274162599</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.13499924978724087</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -5902,15 +8217,19 @@
         <v>0.38247544040541409</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.13129740122455455</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -5945,15 +8264,19 @@
         <v>0.13724268204638859</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.12759555266186823</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -5988,15 +8311,19 @@
         <v>0.37137505528527193</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.12389370409918191</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>423</v>
       </c>
@@ -6031,15 +8358,19 @@
         <v>0.22673021181716829</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.12019185553649558</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -6074,15 +8405,19 @@
         <v>0.1283933559131839</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.11649000697380926</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -6117,15 +8452,19 @@
         <v>0.26497369831049061</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.11278815841112294</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>241</v>
       </c>
@@ -6160,15 +8499,19 @@
         <v>-4.9276190008853858E-3</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.10908630984843662</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1684587813620072E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -6203,15 +8546,19 @@
         <v>0.25899933029864891</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.1053844612857503</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>260</v>
       </c>
@@ -6246,15 +8593,19 @@
         <v>-7.9315916458930505E-2</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.10168261272306398</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -6289,15 +8640,19 @@
         <v>0.1448779488994083</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.7980764160377654E-2</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -6332,15 +8687,19 @@
         <v>0.2229195505590171</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.4278915597691332E-2</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -6375,15 +8734,19 @@
         <v>0.17951815221752179</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.057706703500501E-2</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>399</v>
       </c>
@@ -6418,15 +8781,19 @@
         <v>8.8670890451911219E-2</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.6875218472318688E-2</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -6461,15 +8828,19 @@
         <v>7.4703248008407566E-2</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.3173369909632366E-2</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1684587813620072E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>287</v>
       </c>
@@ -6504,15 +8875,19 @@
         <v>0.1921997949726324</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.9471521346946045E-2</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -6547,15 +8922,19 @@
         <v>0.30000000000000032</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.5769672784259723E-2</v>
       </c>
       <c r="P28">
         <f>COUNTIF($J$2:$J$559, "&lt;="&amp;N28)-COUNTIF($J$2:$J$559, "&lt;="&amp;N27)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>261</v>
       </c>
@@ -6590,15 +8969,19 @@
         <v>0.1158125089409788</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.2067824221573401E-2</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4336917562724014E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -6633,15 +9016,19 @@
         <v>0.2156952794657363</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.8365975658887079E-2</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>230</v>
       </c>
@@ -6676,15 +9063,19 @@
         <v>-7.1214237918877932E-2</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.4664127096200757E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9605734767025085E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>220</v>
       </c>
@@ -6719,15 +9110,19 @@
         <v>4.9592675967750487E-2</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.0962278533514436E-2</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9605734767025085E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>390</v>
       </c>
@@ -6762,15 +9157,19 @@
         <v>0.14087560754423789</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.7260429970828114E-2</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2544802867383513E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>419</v>
       </c>
@@ -6805,15 +9204,19 @@
         <v>8.3127128024889738E-2</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.3558581408141792E-2</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5089605734767026E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -6848,15 +9251,19 @@
         <v>0.28891172754551803</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.985673284545547E-2</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5089605734767026E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>519</v>
       </c>
@@ -6891,15 +9298,19 @@
         <v>-2.4377132930358269E-2</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.6154884282769149E-2</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9713261648745518E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -6934,15 +9345,19 @@
         <v>5.4500667638559722E-2</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.2453035720082827E-2</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3297491039426525E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -6977,15 +9392,19 @@
         <v>5.0030876167406008E-2</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8751187157396505E-2</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7634408602150539E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -7020,15 +9439,19 @@
         <v>0.46248897702087932</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.5049338594710183E-2</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6881720430107527E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -7063,15 +9486,19 @@
         <v>0.10087309575249991</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.1347490032023861E-2</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7634408602150539E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -7106,15 +9533,19 @@
         <v>0.25215434271014942</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.764564146933754E-2</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3010752688172046E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -7149,15 +9580,19 @@
         <v>8.0768143326562555E-2</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.3943792906651218E-2</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5842293906810034E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>312</v>
       </c>
@@ -7192,15 +9627,19 @@
         <v>3.0597797780196459E-2</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0241944343964896E-2</v>
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="3">
+        <f t="shared" si="1"/>
+        <v>5.197132616487455E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -7235,15 +9674,19 @@
         <v>0.2287166914682304</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.6540095781278574E-2</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7347670250896057E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -7278,15 +9721,19 @@
         <v>0.17111642230674851</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2838247218592254E-2</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6594982078853049E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -7321,15 +9768,19 @@
         <v>0.22950420435893731</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.1363986559059342E-3</v>
       </c>
       <c r="P46">
         <f>COUNTIF($J$2:$J$559, "&lt;="&amp;N46)-COUNTIF($J$2:$J$559, "&lt;="&amp;N45)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6594982078853049E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -7371,8 +9822,12 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4050179211469536E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -7407,15 +9862,19 @@
         <v>1.310607337974383</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7327015305332936E-3</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9426523297491037E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -7450,15 +9909,19 @@
         <v>6.4957076691074178E-3</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9691470321530269E-3</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4050179211469536E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -7493,15 +9956,19 @@
         <v>0.16195314487066781</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6709955948393478E-3</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -7536,15 +10003,19 @@
         <v>9.1623247442608427E-2</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3728441575256678E-3</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -7579,15 +10050,19 @@
         <v>0.1227498958286334</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3074692720211988E-2</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>169</v>
       </c>
@@ -7622,15 +10097,19 @@
         <v>0.44016304216042978</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6776541282898308E-2</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53" s="3">
+        <f t="shared" si="1"/>
+        <v>3.046594982078853E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -7665,15 +10144,19 @@
         <v>0.48409604016807889</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.047838984558463E-2</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6881720430107527E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -7708,15 +10191,19 @@
         <v>0.30542374504047332</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4180238408270952E-2</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6881720430107527E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -7751,15 +10238,19 @@
         <v>0.1201420120403105</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7882086970957273E-2</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9713261648745518E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -7794,15 +10285,19 @@
         <v>0.13433817372851309</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1583935533643595E-2</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2544802867383513E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -7837,15 +10332,19 @@
         <v>1.518473379935344E-2</v>
       </c>
       <c r="N58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5285784096329917E-2</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7921146953405017E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -7880,15 +10379,19 @@
         <v>0.4613060809474081</v>
       </c>
       <c r="N59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8987632659016239E-2</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>314</v>
       </c>
@@ -7923,15 +10426,19 @@
         <v>9.9771855396737691E-2</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.268948122170256E-2</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2544802867383513E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>405</v>
       </c>
@@ -7966,15 +10473,19 @@
         <v>9.4481105149752123E-2</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6391329784388882E-2</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>234</v>
       </c>
@@ -8009,15 +10520,19 @@
         <v>0.1882539685894743</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0093178347075204E-2</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4336917562724014E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -8052,15 +10567,19 @@
         <v>-4.9225677523356381E-2</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3795026909761526E-2</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9605734767025085E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -8095,15 +10614,19 @@
         <v>4.6933590751271063E-2</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7496875472447848E-2</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4336917562724014E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -8138,15 +10661,19 @@
         <v>0.27167183741806272</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1198724035134169E-2</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>236</v>
       </c>
@@ -8181,15 +10708,19 @@
         <v>4.5831364825922663E-2</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4900572597820491E-2</v>
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -8224,15 +10755,19 @@
         <v>0.206659916410742</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8602421160506813E-2</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67" si="2">COUNTIF($J$2:$J$559, "&lt;="&amp;N67)-COUNTIF($J$2:$J$559, "&lt;="&amp;N66)</f>
+        <f t="shared" ref="P67" si="3">COUNTIF($J$2:$J$559, "&lt;="&amp;N67)-COUNTIF($J$2:$J$559, "&lt;="&amp;N66)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67" s="3">
+        <f t="shared" ref="Q67:Q101" si="4">P67/558</f>
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -8267,15 +10802,19 @@
         <v>0.20095834389129441</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" ref="N68:N71" si="3">N67+($N$101-$N$2)/100</f>
+        <f t="shared" ref="N68:N71" si="5">N67+($N$101-$N$2)/100</f>
         <v>7.2304269723193135E-2</v>
       </c>
       <c r="P68">
         <f>COUNTIF($J$2:$J$559, "&lt;="&amp;N68)-COUNTIF($J$2:$J$559, "&lt;="&amp;N67)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -8310,15 +10849,19 @@
         <v>0.24473818024155061</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.6006118285879457E-2</v>
       </c>
       <c r="P69">
-        <f t="shared" ref="P69:P83" si="4">COUNTIF($J$2:$J$559, "&lt;="&amp;N69)-COUNTIF($J$2:$J$559, "&lt;="&amp;N68)</f>
+        <f t="shared" ref="P69:P83" si="6">COUNTIF($J$2:$J$559, "&lt;="&amp;N69)-COUNTIF($J$2:$J$559, "&lt;="&amp;N68)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69" s="3">
+        <f t="shared" si="4"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>352</v>
       </c>
@@ -8353,15 +10896,19 @@
         <v>0.12875964169673401</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.9707966848565778E-2</v>
       </c>
       <c r="P70">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q70" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>5.3763440860215058E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -8396,15 +10943,19 @@
         <v>0.42429631728350098</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.34098154112521E-2</v>
       </c>
       <c r="P71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q71" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -8443,11 +10994,15 @@
         <v>8.7111663973938422E-2</v>
       </c>
       <c r="P72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -8482,15 +11037,19 @@
         <v>0.2079661173727439</v>
       </c>
       <c r="N73" s="3">
-        <f t="shared" ref="N73:N100" si="5">N72+($N$101-$N$2)/100</f>
+        <f t="shared" ref="N73:N100" si="7">N72+($N$101-$N$2)/100</f>
         <v>9.0813512536624744E-2</v>
       </c>
       <c r="P73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q73" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -8525,15 +11084,19 @@
         <v>0.19771819172537211</v>
       </c>
       <c r="N74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.4515361099311065E-2</v>
       </c>
       <c r="P74">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q74" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>514</v>
       </c>
@@ -8568,15 +11131,19 @@
         <v>3.6468729656050411E-4</v>
       </c>
       <c r="N75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.8217209661997387E-2</v>
       </c>
       <c r="P75">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q75" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>407</v>
       </c>
@@ -8611,15 +11178,19 @@
         <v>6.7364676483767594E-2</v>
       </c>
       <c r="N76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10191905822468371</v>
       </c>
       <c r="P76">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Q76" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>3.5842293906810036E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>413</v>
       </c>
@@ -8654,15 +11225,19 @@
         <v>0.1329665804437748</v>
       </c>
       <c r="N77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10562090678737003</v>
       </c>
       <c r="P77">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q77" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>342</v>
       </c>
@@ -8697,15 +11272,19 @@
         <v>0.31036923767195979</v>
       </c>
       <c r="N78" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10932275535005635</v>
       </c>
       <c r="P78">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q78" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -8740,15 +11319,19 @@
         <v>7.1722277032062187E-2</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11302460391274267</v>
       </c>
       <c r="P79">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -8783,15 +11366,19 @@
         <v>0.18739118040167879</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.116726452475429</v>
       </c>
       <c r="P80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -8826,15 +11413,19 @@
         <v>0.29634049376485172</v>
       </c>
       <c r="N81" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12042830103811532</v>
       </c>
       <c r="P81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>482</v>
       </c>
@@ -8869,15 +11460,19 @@
         <v>0.19511141184614361</v>
       </c>
       <c r="N82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12413014960080164</v>
       </c>
       <c r="P82">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q82" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>317</v>
       </c>
@@ -8912,15 +11507,19 @@
         <v>8.6071631851274477E-2</v>
       </c>
       <c r="N83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12783199816348795</v>
       </c>
       <c r="P83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>443</v>
       </c>
@@ -8955,15 +11554,19 @@
         <v>0.13953566761097341</v>
       </c>
       <c r="N84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13153384672617427</v>
       </c>
       <c r="P84">
         <f>COUNTIF($J$2:$J$559, "&lt;="&amp;N84)-COUNTIF($J$2:$J$559, "&lt;="&amp;N83)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>428</v>
       </c>
@@ -8998,15 +11601,19 @@
         <v>0.18425387450924019</v>
       </c>
       <c r="N85" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13523569528886059</v>
       </c>
       <c r="P85">
-        <f t="shared" ref="P85:P101" si="6">COUNTIF($J$2:$J$559, "&lt;="&amp;N85)-COUNTIF($J$2:$J$559, "&lt;="&amp;N84)</f>
+        <f t="shared" ref="P85:P101" si="8">COUNTIF($J$2:$J$559, "&lt;="&amp;N85)-COUNTIF($J$2:$J$559, "&lt;="&amp;N84)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>488</v>
       </c>
@@ -9041,15 +11648,19 @@
         <v>0.1141568890219286</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13893754385154691</v>
       </c>
       <c r="P86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>532</v>
       </c>
@@ -9084,15 +11695,19 @@
         <v>4.7271148863471099E-2</v>
       </c>
       <c r="N87" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14263939241423323</v>
       </c>
       <c r="P87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>129</v>
       </c>
@@ -9127,15 +11742,19 @@
         <v>0.30181502946571442</v>
       </c>
       <c r="N88" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14634124097691956</v>
       </c>
       <c r="P88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>398</v>
       </c>
@@ -9170,15 +11789,19 @@
         <v>0.21406849202291359</v>
       </c>
       <c r="N89" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15004308953960588</v>
       </c>
       <c r="P89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>158</v>
       </c>
@@ -9213,15 +11836,19 @@
         <v>0.1062691953937106</v>
       </c>
       <c r="N90" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1537449381022922</v>
       </c>
       <c r="P90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -9256,15 +11883,19 @@
         <v>0.42785946662737578</v>
       </c>
       <c r="N91" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15744678666497852</v>
       </c>
       <c r="P91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>289</v>
       </c>
@@ -9299,15 +11930,19 @@
         <v>0.32038576753206738</v>
       </c>
       <c r="N92" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16114863522766484</v>
       </c>
       <c r="P92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>244</v>
       </c>
@@ -9342,15 +11977,19 @@
         <v>0.29998776520432729</v>
       </c>
       <c r="N93" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16485048379035117</v>
       </c>
       <c r="P93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -9385,15 +12024,19 @@
         <v>0.79572940733721798</v>
       </c>
       <c r="N94" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16855233235303749</v>
       </c>
       <c r="P94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>445</v>
       </c>
@@ -9428,15 +12071,19 @@
         <v>0.27849489344955741</v>
       </c>
       <c r="N95" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17225418091572381</v>
       </c>
       <c r="P95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -9471,15 +12118,19 @@
         <v>0.4494252021479383</v>
       </c>
       <c r="N96" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17595602947841013</v>
       </c>
       <c r="P96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -9514,15 +12165,19 @@
         <v>0.1767438848352533</v>
       </c>
       <c r="N97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17965787804109645</v>
       </c>
       <c r="P97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -9557,15 +12212,19 @@
         <v>0.132793215097537</v>
       </c>
       <c r="N98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18335972660378277</v>
       </c>
       <c r="P98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>365</v>
       </c>
@@ -9600,15 +12259,19 @@
         <v>0.2645589826900836</v>
       </c>
       <c r="N99" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1870615751664691</v>
       </c>
       <c r="P99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>451</v>
       </c>
@@ -9643,15 +12306,19 @@
         <v>0.15844741436760659</v>
       </c>
       <c r="N100" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19076342372915542</v>
       </c>
       <c r="P100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>327</v>
       </c>
@@ -9689,11 +12356,15 @@
         <v>0.19816712085452801</v>
       </c>
       <c r="P101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7921146953405018E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>450</v>
       </c>
@@ -9728,7 +12399,7 @@
         <v>0.16663360839230659</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -9763,7 +12434,7 @@
         <v>0.31312508273662698</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -9801,8 +12472,11 @@
         <f>SUM(P2:P101)</f>
         <v>558</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="Q104" s="3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>90</v>
       </c>
@@ -9837,7 +12511,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -9872,7 +12546,7 @@
         <v>0.48416970492272499</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -9907,7 +12581,7 @@
         <v>0.1970491286311879</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>353</v>
       </c>
@@ -9942,7 +12616,7 @@
         <v>0.44712246495461161</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>395</v>
       </c>
@@ -9977,7 +12651,7 @@
         <v>9.9460931569657879E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>271</v>
       </c>
@@ -10012,7 +12686,7 @@
         <v>7.2606624468942157E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>320</v>
       </c>
@@ -10047,7 +12721,7 @@
         <v>0.25966203336748711</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>472</v>
       </c>

--- a/data/statistics2.xlsx
+++ b/data/statistics2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghulux/Programs/pythonProjects/convertible_bond/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C572D-F485-734E-8A07-4C01153315F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE0CE63-FD97-C841-8121-67D87B8521BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11863,20 +11863,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN"/>
               <a:t>可转债上市当天涨跌幅分布</a:t>
             </a:r>
           </a:p>
@@ -11895,16 +11895,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -12574,7 +12574,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="269"/>
         <c:axId val="841782447"/>
         <c:axId val="841654911"/>
       </c:barChart>
@@ -12596,7 +12596,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -13253,7 +13253,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -13274,7 +13274,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -13316,6 +13316,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13400,7 +13414,7 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1386821535"/>
@@ -13418,7 +13432,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14073,7 +14087,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14084,7 +14098,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -14107,14 +14121,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -14130,7 +14144,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -14150,22 +14164,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -14174,35 +14183,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -14211,33 +14230,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -14259,15 +14274,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -14277,7 +14290,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -14286,14 +14299,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -14302,17 +14314,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -14321,14 +14333,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14340,21 +14352,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -14373,7 +14379,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -14392,17 +14398,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -14411,17 +14417,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -14442,7 +14447,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -14450,7 +14455,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -14481,10 +14486,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -14499,13 +14504,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -14514,14 +14519,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -14542,20 +14547,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14576,14 +14580,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -14639,8 +14637,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -14993,7 +14991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q568"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="H3" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -35814,7 +35812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34621D5-7B5E-BC43-BD02-AD634DC983E0}">
   <dimension ref="A1:Q568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
